--- a/Midterm/Midterm_RhenoRayhanFayyazDhanaPramudya_2141720157.xlsx
+++ b/Midterm/Midterm_RhenoRayhanFayyazDhanaPramudya_2141720157.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Dropbox\PC\Documents\College Assignments\4th Semester\Computation Statistics\UTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Dropbox\PC\Documents\Git Repo\StatisticComputation2I-22\Midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64B3315-B14F-4349-8C16-49A06C07B116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06F3151-1BF2-4235-92C5-150EE6EEDD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{D617DD7E-1234-45E2-91A6-6B20DB9BF275}"/>
   </bookViews>
@@ -3210,7 +3210,7 @@
   <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13550,7 +13550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B654A3DA-5869-4AAE-B4FE-CDC88286A5F5}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
